--- a/Retail_Sales_Analysis.xlsx
+++ b/Retail_Sales_Analysis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Order ID</t>
   </si>
@@ -103,13 +103,30 @@
   </si>
   <si>
     <t>Filing Cabinet</t>
+  </si>
+  <si>
+    <r>
+      <t>Profit Margin(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +142,15 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -468,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B5:J15"/>
+  <dimension ref="B5:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:J15"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -483,9 +509,10 @@
     <col min="8" max="8" width="11.42578125" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" customWidth="1"/>
     <col min="10" max="10" width="19.85546875" customWidth="1"/>
+    <col min="11" max="11" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:10" ht="45">
+    <row r="5" spans="2:11" ht="45">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,8 +540,11 @@
       <c r="J5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" ht="30">
+      <c r="K5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
       <c r="B6" s="2">
         <v>1001</v>
       </c>
@@ -542,8 +572,12 @@
       <c r="J6" s="2">
         <v>40000</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" ht="30">
+      <c r="K6">
+        <f>J6/H6*100</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="2">
         <v>1002</v>
       </c>
@@ -571,8 +605,12 @@
       <c r="J7" s="2">
         <v>120000</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" ht="30">
+      <c r="K7">
+        <f t="shared" ref="K7:K15" si="0">J7/H7*100</f>
+        <v>14.117647058823529</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="30">
       <c r="B8" s="2">
         <v>1003</v>
       </c>
@@ -600,8 +638,12 @@
       <c r="J8" s="2">
         <v>8000</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" ht="30">
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>17.777777777777779</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9" s="2">
         <v>1004</v>
       </c>
@@ -629,8 +671,12 @@
       <c r="J9" s="2">
         <v>60000</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" ht="30">
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10" s="2">
         <v>1005</v>
       </c>
@@ -658,8 +704,12 @@
       <c r="J10" s="2">
         <v>30000</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" ht="30">
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" s="2">
         <v>1006</v>
       </c>
@@ -687,8 +737,12 @@
       <c r="J11" s="2">
         <v>3000</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" ht="30">
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="2">
         <v>1007</v>
       </c>
@@ -716,8 +770,12 @@
       <c r="J12" s="2">
         <v>35000</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" ht="30">
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>15.909090909090908</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="30">
       <c r="B13" s="2">
         <v>1008</v>
       </c>
@@ -745,8 +803,12 @@
       <c r="J13" s="2">
         <v>25000</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" ht="30">
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>17.857142857142858</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
       <c r="B14" s="2">
         <v>1009</v>
       </c>
@@ -774,8 +836,12 @@
       <c r="J14" s="2">
         <v>90000</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" ht="30">
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="30">
       <c r="B15" s="2">
         <v>1010</v>
       </c>
@@ -803,9 +869,14 @@
       <c r="J15" s="2">
         <v>15000</v>
       </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>15.789473684210526</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
